--- a/~2022-10-31 1인프로젝트/기획서 ~9.26/산출물제출목록-통합사이트.xlsx
+++ b/~2022-10-31 1인프로젝트/기획서 ~9.26/산출물제출목록-통합사이트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\기획서 ~9.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C5909-46C3-43E7-9BAB-3A2C046CEE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A582030-9D62-4539-AD0B-6FFA13DFB960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +458,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -952,7 +955,7 @@
   <dimension ref="A5:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1012,7 +1015,7 @@
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="3"/>
